--- a/apps/backend/tests/test_files/test_one_step_2022_05_Май_2_pentadal_forecast_bulletin.xlsx
+++ b/apps/backend/tests/test_files/test_one_step_2022_05_Май_2_pentadal_forecast_bulletin.xlsx
@@ -813,7 +813,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,50</t>
         </is>
       </c>
       <c r="D7" s="35" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> nan</t>
+          <t xml:space="preserve"> 3,68</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>65</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
